--- a/Milestone_6/Milestone-6.xlsx
+++ b/Milestone_6/Milestone-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fall 2020\Web Designing &amp; Programming\Milestone_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shristi/Desktop/Files/.team-name-404-Not-Found-/Milestone_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5D063-2797-452F-91CC-BA3C98EAA7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB38A5B4-6A83-814B-8023-4066C4E278A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Milestone 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -114,15 +111,9 @@
     <t>Orders</t>
   </si>
   <si>
-    <t>Signup</t>
-  </si>
-  <si>
     <t>Shopping Cart</t>
   </si>
   <si>
-    <t>Total items/price</t>
-  </si>
-  <si>
     <t>Order Details</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Admin Area</t>
   </si>
   <si>
-    <t>Admin Login</t>
-  </si>
-  <si>
     <t>Total Products</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>Total Kids Products/Edit</t>
   </si>
   <si>
-    <t>Admin Logout</t>
-  </si>
-  <si>
     <t>View Payments</t>
   </si>
   <si>
@@ -169,6 +154,93 @@
   </si>
   <si>
     <t>My Cart Page</t>
+  </si>
+  <si>
+    <t>Design logo for the website and add in the home page</t>
+  </si>
+  <si>
+    <t>Pop up window for products in the product pages</t>
+  </si>
+  <si>
+    <t>Footer for all the pages</t>
+  </si>
+  <si>
+    <t>Create a single page for all the users, where they can view their history of purchase, view and modify the personal information, and can logout/delete the account.</t>
+  </si>
+  <si>
+    <t>List out all the products user add in the cart, with more information like the card details, address, etc.</t>
+  </si>
+  <si>
+    <t>Link all the pages together to make sure we can efficiently navigate our whole website</t>
+  </si>
+  <si>
+    <t>Search the database for the product</t>
+  </si>
+  <si>
+    <t>Store every single user detail on the database</t>
+  </si>
+  <si>
+    <t>Signout</t>
+  </si>
+  <si>
+    <t>Signout/Stop the session</t>
+  </si>
+  <si>
+    <t>Encryting the password using some php</t>
+  </si>
+  <si>
+    <t>Email the signup email to with the user's password, decrypt the password so that it is user readable.</t>
+  </si>
+  <si>
+    <t>Cart page will have products, have to calculate the total items and price of each products</t>
+  </si>
+  <si>
+    <t>Start the session, store the user's details in sessions</t>
+  </si>
+  <si>
+    <t>Cart(Total Price, Items)</t>
+  </si>
+  <si>
+    <t>Go back to the details of each orders to view, change the products.</t>
+  </si>
+  <si>
+    <t>Go to payment page from cart to enter the cardnumber to start the process.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Admin Home</t>
+  </si>
+  <si>
+    <t>Homepage for admin(completely different form user's view), which has all the priviliges, can navigate through different navigation bar on side to modify the produvts, or the customers details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch all the products from the database, and count the total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch all the customers from the database, and count the total </t>
+  </si>
+  <si>
+    <t>Fetch all the products from the database filter by men, and count the total, modify the details, add more products, delete the product(if out of stock)</t>
+  </si>
+  <si>
+    <t>Fetch all the products from the database filter by kids, and count the total, modify the details, add more products, delete the product(if out of stock)</t>
+  </si>
+  <si>
+    <t>Fetch all the products from the database filter by women, and count the total, modify the details, add more products, delete the product(if out of stock)</t>
+  </si>
+  <si>
+    <t>Fetch all the customers from the database, and can change the details and even delete them</t>
+  </si>
+  <si>
+    <t>Fetch all the products from the database, and can change the details and even delete them from the database.</t>
+  </si>
+  <si>
+    <t>Debug our individual pages, and everyone meets virtually to see everything works as expected.</t>
+  </si>
+  <si>
+    <t>Fetch all the orders brought by the customers along with the current orders on progress</t>
   </si>
 </sst>
 </file>
@@ -502,450 +574,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="82.83203125" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
         <v>44137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>44176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
         <v>44137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D35" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
         <v>44140</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
         <v>44142</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
         <v>44145</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="2">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="2">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="2">
-        <v>44149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="D53" s="2">
         <v>44162</v>
       </c>
     </row>

--- a/Milestone_6/Milestone-6.xlsx
+++ b/Milestone_6/Milestone-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shristi/Desktop/Files/.team-name-404-Not-Found-/Milestone_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB38A5B4-6A83-814B-8023-4066C4E278A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2530F-E624-6748-81E5-CBBBF1FC7963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +292,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,17 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="82.83203125" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,111 +598,122 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>44137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>44137</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>44152</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>44160</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>44166</v>
+        <v>44176</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>44176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="2">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="2">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
         <v>44137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -705,395 +723,381 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2">
         <v>44155</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D19" s="2">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" s="2">
-        <v>44154</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>44154</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D27" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
       <c r="D28" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2">
         <v>44139</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D34" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
       <c r="D35" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>44141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2">
         <v>44153</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2">
-        <v>44142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2">
-        <v>44144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
         <v>44145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2">
-        <v>44147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2">
-        <v>44147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>44145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2">
-        <v>44150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2">
         <v>44149</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B51" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D51" s="2">
         <v>44162</v>
       </c>
     </row>
